--- a/GB Accounts 2022-23/GB Accounts Company 2024-01-31 (Jan24) Excel 2007/Salesinvoice.xlsx
+++ b/GB Accounts 2022-23/GB Accounts Company 2024-01-31 (Jan24) Excel 2007/Salesinvoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\Packages to create\GB Accounts Company 2022-03-31 (Mar22) Excel 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\Wages Interface and Linking to be complete on all\GB Accounts Company 2024-01-31 (Jan24) Excel 2007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA93E1E-4C50-4676-8B3C-77CC8AD343F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E10AC0-9463-4B5F-87CE-80A2DE4F8151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,15 +1134,138 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,129 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="2" spans="1:19" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1697,11 +1697,11 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1723,14 +1723,14 @@
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="C5" s="87" t="str">
+      <c r="C5" s="118" t="str">
         <f>IF('Business Details'!B2&gt;0,'Business Details'!B2," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1740,21 +1740,21 @@
     </row>
     <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="J6" s="83" t="str">
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="J6" s="113" t="str">
         <f>IF('Business Details'!B12&gt;0,'Business Details'!B12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1779,27 +1779,27 @@
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="C8" s="82" t="str">
+      <c r="C8" s="114" t="str">
         <f>IF('Business Details'!B13&gt;0,'Business Details'!B13," ")</f>
         <v>Thank you for your custom</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="J8" s="122" t="str">
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="J8" s="98" t="str">
         <f>IF(O8=" "," ",'Business Details'!A11)</f>
         <v>VAT Registration Number</v>
       </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="119" t="str">
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="94" t="str">
         <f>IF('Business Details'!B11&gt;0,'Business Details'!B11," ")</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="P8" s="120"/>
+      <c r="P8" s="95"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1811,25 +1811,25 @@
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="121" t="str">
+      <c r="J10" s="96" t="str">
         <f>IF('Business Details'!B3&gt;0,'Business Details'!B3," ")</f>
         <v>&lt;enter business name&gt;</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1843,13 +1843,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1866,16 +1866,16 @@
       <c r="G12" s="74"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="75" t="str">
+      <c r="J12" s="97" t="str">
         <f>IF('Business Details'!B4&gt;0,'Business Details'!B4," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1889,13 +1889,13 @@
       <c r="G13" s="74"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1912,16 +1912,16 @@
       <c r="G14" s="74"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="75" t="str">
+      <c r="J14" s="97" t="str">
         <f>IF('Business Details'!B5&gt;0,'Business Details'!B5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1935,13 +1935,13 @@
       <c r="G15" s="74"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1958,16 +1958,16 @@
       <c r="G16" s="74"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="75" t="str">
+      <c r="J16" s="97" t="str">
         <f>IF('Business Details'!B6&gt;0,'Business Details'!B6," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1981,13 +1981,13 @@
       <c r="G17" s="74"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2004,16 +2004,16 @@
       <c r="G18" s="74"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="75" t="str">
+      <c r="J18" s="97" t="str">
         <f>IF('Business Details'!B7&gt;0,'Business Details'!B7," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2027,13 +2027,13 @@
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2050,19 +2050,19 @@
       <c r="G20" s="74"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="100" t="str">
+      <c r="J20" s="103" t="str">
         <f>'Business Details'!A8</f>
         <v>Telephone</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="101" t="str">
+      <c r="N20" s="87" t="str">
         <f>IF('Business Details'!B8&gt;0,'Business Details'!B8," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2076,13 +2076,13 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2096,19 +2096,19 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="100" t="str">
+      <c r="J22" s="103" t="str">
         <f>'Business Details'!A9</f>
         <v>Fax number</v>
       </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="101" t="str">
+      <c r="N22" s="87" t="str">
         <f>IF('Business Details'!B9&gt;0,'Business Details'!B9," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2122,13 +2122,13 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2140,30 +2140,30 @@
         <v xml:space="preserve">Email </v>
       </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="116" t="str">
+      <c r="L24" s="90" t="str">
         <f>IF('Business Details'!B10&gt;0,'Business Details'!B10," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2175,9 +2175,9 @@
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2192,18 +2192,18 @@
       <c r="E27" s="74"/>
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
-      <c r="J27" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
+      <c r="J27" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="111" t="str">
+      <c r="N27" s="84" t="str">
         <f>IF(SUM('Invoice Database'!A:A)=0," ",LOOKUP(1,'Invoice Database'!A:A,'Invoice Database'!B:B))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O27" s="112"/>
-      <c r="P27" s="113"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2236,18 +2236,18 @@
       <c r="E29" s="74"/>
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
-      <c r="J29" s="102" t="s">
+      <c r="J29" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="111" t="str">
+      <c r="N29" s="84" t="str">
         <f>IF(N27=" "," ",IF(N27&gt;0,LOOKUP(N27,'Invoice Database'!B:B,'Invoice Database'!D:D)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O29" s="112"/>
-      <c r="P29" s="113"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="86"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2280,18 +2280,18 @@
       <c r="E31" s="74"/>
       <c r="F31" s="74"/>
       <c r="G31" s="74"/>
-      <c r="J31" s="102" t="s">
+      <c r="J31" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="111" t="str">
+      <c r="N31" s="84" t="str">
         <f>IF(N27=" "," ",IF(N27&gt;0,LOOKUP(N29,'Customer Details'!A:A,'Customer Details'!B:B)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O31" s="112"/>
-      <c r="P31" s="113"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="86"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2330,12 +2330,12 @@
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="114" t="str">
+      <c r="N33" s="88" t="str">
         <f>IF(N27=" "," ",IF(N27&gt;0,LOOKUP(N27,'Invoice Database'!B:B,'Invoice Database'!C:C)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O33" s="115"/>
-      <c r="P33" s="113"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="86"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2377,12 +2377,12 @@
         <v>6</v>
       </c>
       <c r="D37" s="34"/>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
       <c r="I37" s="34"/>
       <c r="J37" s="33" t="s">
         <v>24</v>
@@ -2396,10 +2396,10 @@
         <v>28</v>
       </c>
       <c r="O37" s="34"/>
-      <c r="P37" s="78" t="s">
+      <c r="P37" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="79"/>
+      <c r="Q37" s="120"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
@@ -2434,11 +2434,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O38" s="28"/>
-      <c r="P38" s="76" t="str">
+      <c r="P38" s="106" t="str">
         <f>IF(L38=" "," ",J38*L38)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q38" s="77"/>
+      <c r="Q38" s="107"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="V38" s="61">
@@ -2477,11 +2477,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O39" s="28"/>
-      <c r="P39" s="76" t="str">
+      <c r="P39" s="106" t="str">
         <f>IF(L39=" "," ",J39*L39)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q39" s="77"/>
+      <c r="Q39" s="107"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="V39" s="61">
@@ -2520,11 +2520,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O40" s="28"/>
-      <c r="P40" s="76" t="str">
+      <c r="P40" s="106" t="str">
         <f>IF(L40=" "," ",J40*L40)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q40" s="77"/>
+      <c r="Q40" s="107"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="V40" s="61">
@@ -2563,11 +2563,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O41" s="28"/>
-      <c r="P41" s="76" t="str">
+      <c r="P41" s="106" t="str">
         <f>IF(L41=" "," ",J41*L41)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q41" s="77"/>
+      <c r="Q41" s="107"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="U41" s="31"/>
@@ -2607,11 +2607,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O42" s="28"/>
-      <c r="P42" s="76" t="str">
+      <c r="P42" s="106" t="str">
         <f>IF(L42=" "," ",J42*L42)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q42" s="77"/>
+      <c r="Q42" s="107"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="V42" s="61">
@@ -2650,11 +2650,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O43" s="28"/>
-      <c r="P43" s="76" t="str">
+      <c r="P43" s="106" t="str">
         <f t="shared" ref="P43:P57" si="1">IF(L43=" "," ",J43*L43)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q43" s="77"/>
+      <c r="Q43" s="107"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="V43" s="61">
@@ -2693,11 +2693,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O44" s="28"/>
-      <c r="P44" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q44" s="77"/>
+      <c r="P44" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q44" s="107"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="V44" s="61">
@@ -2736,11 +2736,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O45" s="28"/>
-      <c r="P45" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q45" s="77"/>
+      <c r="P45" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q45" s="107"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="V45" s="61">
@@ -2779,11 +2779,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O46" s="28"/>
-      <c r="P46" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q46" s="77"/>
+      <c r="P46" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q46" s="107"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="V46" s="61">
@@ -2822,11 +2822,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O47" s="28"/>
-      <c r="P47" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q47" s="77"/>
+      <c r="P47" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q47" s="107"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="V47" s="61">
@@ -2865,11 +2865,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O48" s="28"/>
-      <c r="P48" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q48" s="77"/>
+      <c r="P48" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q48" s="107"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="V48" s="61">
@@ -2908,11 +2908,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O49" s="28"/>
-      <c r="P49" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q49" s="77"/>
+      <c r="P49" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q49" s="107"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="V49" s="61">
@@ -2951,11 +2951,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O50" s="28"/>
-      <c r="P50" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q50" s="77"/>
+      <c r="P50" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q50" s="107"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="V50" s="61">
@@ -2994,11 +2994,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O51" s="28"/>
-      <c r="P51" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q51" s="77"/>
+      <c r="P51" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q51" s="107"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="V51" s="61">
@@ -3037,11 +3037,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O52" s="28"/>
-      <c r="P52" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q52" s="77"/>
+      <c r="P52" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q52" s="107"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="V52" s="61">
@@ -3080,11 +3080,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O53" s="28"/>
-      <c r="P53" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q53" s="77"/>
+      <c r="P53" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q53" s="107"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="V53" s="61">
@@ -3123,11 +3123,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O54" s="28"/>
-      <c r="P54" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q54" s="77"/>
+      <c r="P54" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q54" s="107"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="V54" s="61">
@@ -3166,11 +3166,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O55" s="28"/>
-      <c r="P55" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q55" s="77"/>
+      <c r="P55" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q55" s="107"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="V55" s="61">
@@ -3209,11 +3209,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O56" s="28"/>
-      <c r="P56" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q56" s="77"/>
+      <c r="P56" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q56" s="107"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="V56" s="61">
@@ -3252,11 +3252,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O57" s="28"/>
-      <c r="P57" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q57" s="77"/>
+      <c r="P57" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q57" s="107"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="V57" s="61">
@@ -3275,17 +3275,17 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="L58" s="89" t="s">
+      <c r="L58" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M58" s="90"/>
-      <c r="N58" s="91"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="111"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="97">
+      <c r="P58" s="82">
         <f>SUM(P38:P57)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="98"/>
+      <c r="Q58" s="83"/>
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3302,27 +3302,27 @@
     <row r="60" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="93" t="str">
+      <c r="C60" s="112" t="str">
         <f>IF('Business Details'!B14&gt;0,'Business Details'!B14," ")</f>
         <v>Terms strictly 30 days net</v>
       </c>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="L60" s="89" t="s">
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="L60" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="90"/>
-      <c r="N60" s="91"/>
+      <c r="M60" s="110"/>
+      <c r="N60" s="111"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="97" t="str">
+      <c r="P60" s="82" t="str">
         <f>IF(N27=" "," ",IF(N27&gt;0,IF(LOOKUP(N27,'Invoice Database'!B:B,'Invoice Database'!E:E)&gt;0,LOOKUP(N27,'Invoice Database'!B:B,'Invoice Database'!E:E),0)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q60" s="98"/>
+      <c r="Q60" s="83"/>
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3339,27 +3339,27 @@
     <row r="62" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="83" t="str">
+      <c r="C62" s="113" t="str">
         <f>IF('Business Details'!B15&gt;0,'Business Details'!B15," ")</f>
         <v xml:space="preserve">Overdue accounts charged at 2% per month </v>
       </c>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="L62" s="89" t="s">
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="L62" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="M62" s="90"/>
-      <c r="N62" s="91"/>
+      <c r="M62" s="110"/>
+      <c r="N62" s="111"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="97">
+      <c r="P62" s="82">
         <f>IF(P58&lt;&gt;0,SUM(V38:V57)+P60*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="98"/>
+      <c r="Q62" s="83"/>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3376,28 +3376,28 @@
     <row r="64" spans="1:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="93" t="str">
+      <c r="C64" s="112" t="str">
         <f>IF('Business Details'!B16&gt;0,'Business Details'!B16," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="L64" s="94" t="str">
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="L64" s="99" t="str">
         <f>IF(P64&lt;0,"Credit Amount","Amount Payable")</f>
         <v>Amount Payable</v>
       </c>
-      <c r="M64" s="95"/>
-      <c r="N64" s="96"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="101"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="103">
+      <c r="P64" s="104">
         <f>SUM(P58:Q62)</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="104"/>
+      <c r="Q64" s="105"/>
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3414,24 +3414,24 @@
     <row r="66" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="92" t="str">
+      <c r="C66" s="81" t="str">
         <f>IF('Business Details'!B17&gt;0,'Business Details'!B17," ")</f>
         <v>All goods remain the property of &lt;enter business name&gt; until paid for in full</v>
       </c>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="92"/>
-      <c r="N66" s="92"/>
-      <c r="O66" s="92"/>
-      <c r="P66" s="92"/>
-      <c r="Q66" s="92"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -3442,24 +3442,24 @@
     <row r="68" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="92" t="str">
+      <c r="C68" s="81" t="str">
         <f>IF('Business Details'!B18&gt;0,'Business Details'!B18," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="92"/>
-      <c r="O68" s="92"/>
-      <c r="P68" s="92"/>
-      <c r="Q68" s="92"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3477,32 +3477,114 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A70" s="88" t="s">
+      <c r="A70" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="88"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
+      <c r="S70" s="108"/>
       <c r="T70" s="62"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="106">
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A70:S70"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C68:Q68"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C29:G29"/>
@@ -3527,88 +3609,6 @@
     <mergeCell ref="E46:H46"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="E48:H48"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A70:S70"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C68:Q68"/>
-    <mergeCell ref="C60:I60"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
